--- a/data/trans_camb/P29A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29A-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.951408410833694</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.415794641387125</v>
+        <v>1.41579464138713</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.143919594994688</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8913287886592451</v>
+        <v>1.524854038544528</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.929015454329053</v>
+        <v>-2.233797740077948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.461073486640351</v>
+        <v>-3.561288969147936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6108368852447883</v>
+        <v>0.4919611017533883</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.212736751869274</v>
+        <v>-1.343021812974855</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.474338194221708</v>
+        <v>-4.428965387027784</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8097024083483305</v>
+        <v>0.7486330327464802</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.219136560381698</v>
+        <v>-1.636227685954625</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.136949832098161</v>
+        <v>-4.270633889852805</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.735668315975431</v>
+        <v>10.73527334740835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.304223046338361</v>
+        <v>7.102713588493727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.454837390898549</v>
+        <v>6.27613607443942</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.673262369371367</v>
+        <v>5.755658971874828</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.512387466874294</v>
+        <v>4.082690889400099</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3566590373263291</v>
+        <v>0.3494020466426115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.082909637027532</v>
+        <v>5.999855234320911</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.579409034247835</v>
+        <v>3.957719415296157</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.210860972913592</v>
+        <v>1.326963195658538</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.04491652307882032</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.03258803863490907</v>
+        <v>0.03258803863490919</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2786504883662446</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01983036893500965</v>
+        <v>0.03403198547261039</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06488708765600752</v>
+        <v>-0.05010209389191828</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07671566043589792</v>
+        <v>-0.07806513553509525</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04289557365223823</v>
+        <v>0.03291074425901431</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1007993691961109</v>
+        <v>-0.1140436512961415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.362400671000462</v>
+        <v>-0.3611189523076934</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02952202501960728</v>
+        <v>0.0279913296478575</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04657634206155204</v>
+        <v>-0.06019208952379148</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1541179871728201</v>
+        <v>-0.1586297927864108</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2354479910294252</v>
+        <v>0.2640541826491534</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1509215310520668</v>
+        <v>0.1724299099715105</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1566416875860576</v>
+        <v>0.1529384510844108</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5564295464675827</v>
+        <v>0.5570642230213838</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4376872763596034</v>
+        <v>0.4018785579224779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03360476269784342</v>
+        <v>0.0338556294436417</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2542115304511691</v>
+        <v>0.249154620087218</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1907283281399894</v>
+        <v>0.1657356217762055</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.05448115037601773</v>
+        <v>0.05833122716233453</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.35022114045162</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.526666027163346</v>
+        <v>-5.526666027163341</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.358325650201387</v>
@@ -878,7 +878,7 @@
         <v>0.6300981884619028</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-9.605296230110987</v>
+        <v>-9.605296230110982</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.405721994629761</v>
+        <v>-6.358464366431975</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.790310549127225</v>
+        <v>-5.166444264096832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-16.59912406493965</v>
+        <v>-16.65357230218379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.457899667579767</v>
+        <v>-5.405987326409361</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1779312797181639</v>
+        <v>-0.05293993278751381</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.739695308900963</v>
+        <v>-8.667128691252669</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.791126474264748</v>
+        <v>-4.78216506502288</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.745732629410364</v>
+        <v>-1.598491261554254</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.90028589336422</v>
+        <v>-12.05178038067327</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4754340238301908</v>
+        <v>0.3957620746889552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.779537794509578</v>
+        <v>1.616411662449502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-9.58232052247847</v>
+        <v>-9.890926577362658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9389755268340614</v>
+        <v>1.088443476185745</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.372015606168439</v>
+        <v>6.462050632118385</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.619610762918227</v>
+        <v>-2.722618247364291</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1603078985939751</v>
+        <v>0.1334676282766163</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.973815504952903</v>
+        <v>3.371689030839021</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-7.149942901776342</v>
+        <v>-7.101695484470957</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1068006382640549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1761828352303175</v>
+        <v>-0.1761828352303173</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.05104580798474426</v>
@@ -983,7 +983,7 @@
         <v>0.01363843502148013</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2079060230536711</v>
+        <v>-0.207906023053671</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.102722032527469</v>
+        <v>-0.1026882250297387</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07799348283765724</v>
+        <v>-0.08336288941858996</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2697840890104419</v>
+        <v>-0.2696622282347526</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1644829853584059</v>
+        <v>-0.1650416506524216</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.00485125452567981</v>
+        <v>-0.00162117145889896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.261123285493333</v>
+        <v>-0.2595265008981502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1019144066781023</v>
+        <v>-0.1011696844302731</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03672944073750261</v>
+        <v>-0.03379841273696591</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.252695938083161</v>
+        <v>-0.2535978484156291</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.008144642264915238</v>
+        <v>0.00661320270194833</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03019872103366116</v>
+        <v>0.02779109124784363</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1638339995908467</v>
+        <v>-0.1683357458012971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03277561111639306</v>
+        <v>0.03836964891904803</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2130254985262938</v>
+        <v>0.2189067953394056</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.08800453497367342</v>
+        <v>-0.08950499174075906</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.00292923470536839</v>
+        <v>0.002797604461058372</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06585419997093202</v>
+        <v>0.07519230659782322</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1613256106237003</v>
+        <v>-0.1589100350952256</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.142119235433297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-8.756720150421792</v>
+        <v>-8.756720150421804</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.120303133459016</v>
@@ -1092,7 +1092,7 @@
         <v>8.472267347557839</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-5.968782436568365</v>
+        <v>-5.968782436568371</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.105698415004652</v>
+        <v>-1.790061334059939</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.37997864463093</v>
+        <v>1.199781237773642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.95975643625597</v>
+        <v>-14.85102934391618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8767773838588775</v>
+        <v>0.2404778826163372</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.316737914801038</v>
+        <v>5.277236564106826</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.895954777981639</v>
+        <v>-7.303789880267747</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5192793968415466</v>
+        <v>0.6625575503279756</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.467830433798734</v>
+        <v>3.725035226442805</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.16328001623619</v>
+        <v>-10.43055289988314</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.37664342730672</v>
+        <v>11.09625646982271</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.57240114422078</v>
+        <v>13.57212981974723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.886417845208551</v>
+        <v>-3.126233105031961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.07457291894189</v>
+        <v>13.50833267499347</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.49843477210433</v>
+        <v>17.87584679873721</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.213753049973462</v>
+        <v>3.492266328125432</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.07081980405646</v>
+        <v>10.08036653588037</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.39148554598792</v>
+        <v>12.93962924587459</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.868354125319833</v>
+        <v>-1.847370178740972</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1180980623035334</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1447961939319793</v>
+        <v>-0.1447961939319795</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1855536152455702</v>
@@ -1197,7 +1197,7 @@
         <v>0.1689193940441339</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1190051105572143</v>
+        <v>-0.1190051105572144</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03358006597522708</v>
+        <v>-0.02900847147873958</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02192562610266265</v>
+        <v>0.01771252391402263</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2357068769427198</v>
+        <v>-0.2344265072214778</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01549352049935301</v>
+        <v>0.006445860220123077</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1046762351756809</v>
+        <v>0.1244477594969261</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1629487393183324</v>
+        <v>-0.1768744653022002</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009909927683281361</v>
+        <v>0.0133277235724512</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08477726980926416</v>
+        <v>0.07083456537054049</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1882856883823034</v>
+        <v>-0.1998845918264588</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1992419125074174</v>
+        <v>0.1938987715295039</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2413015838992614</v>
+        <v>0.2396521356032564</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.04988095855738129</v>
+        <v>-0.05576268340474095</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4004026811672845</v>
+        <v>0.3858844238116644</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.505340667283976</v>
+        <v>0.520725568922385</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1242280806389505</v>
+        <v>0.09654010855538127</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2115822289807651</v>
+        <v>0.2105857435310943</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2784850576299294</v>
+        <v>0.2731391227523076</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03753763653143618</v>
+        <v>-0.03898218860948137</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>4.116936056482906</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.77575503228702</v>
+        <v>-3.775755032287015</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.371078650423907</v>
+        <v>-1.534969174914716</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.36561339433488</v>
+        <v>-0.148651704013228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.840863547807491</v>
+        <v>-9.886654042909266</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.0251163470236</v>
+        <v>-0.8968683265634109</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.15969538329795</v>
+        <v>4.239822113693137</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.237020209642341</v>
+        <v>-2.251984159765831</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8818688929606368</v>
+        <v>-0.8765393821563022</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.35316248954071</v>
+        <v>2.282304793744288</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.580920577543287</v>
+        <v>-5.634364926893412</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.591956022962504</v>
+        <v>3.394327465281485</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.843299594860831</v>
+        <v>4.605995448504109</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.596745206873002</v>
+        <v>-4.749257213033895</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.216668891483713</v>
+        <v>3.341985910780577</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.687341663530383</v>
+        <v>8.636932186411684</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.743494147900533</v>
+        <v>1.699129319029263</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.714592097990842</v>
+        <v>2.742154819627903</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.871674154503777</v>
+        <v>5.957374796408786</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.154524137098378</v>
+        <v>-2.22171102355767</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1043961357068991</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.09574456084299392</v>
+        <v>-0.09574456084299378</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02387819605537463</v>
+        <v>-0.02737553868415668</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.006844458802077621</v>
+        <v>-0.002599543726966848</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1751734812526114</v>
+        <v>-0.1760083778953404</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0384236183979683</v>
+        <v>-0.03543463642590891</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1613493258084202</v>
+        <v>0.163584140305661</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08787590516780643</v>
+        <v>-0.08680334421710056</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02160085608536959</v>
+        <v>-0.02178095940127506</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0584664969153719</v>
+        <v>0.05563664696202194</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1376199618218077</v>
+        <v>-0.1394157616833127</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.067080766092073</v>
+        <v>0.06349449131371734</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0887102070240114</v>
+        <v>0.08611565180665262</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.08454567314109573</v>
+        <v>-0.08962522527608674</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1371954527027211</v>
+        <v>0.1430961145474212</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3683218741393588</v>
+        <v>0.3652680793242279</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0750051339285593</v>
+        <v>0.07273282922532046</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07003933315751709</v>
+        <v>0.07023154172981549</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1530151146708966</v>
+        <v>0.1540653100341804</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.05527285546740805</v>
+        <v>-0.05743218122918825</v>
       </c>
     </row>
     <row r="28">
